--- a/trend_results/Rivers/OwahangaatBranscombeBridge_cf544bc014.xlsx
+++ b/trend_results/Rivers/OwahangaatBranscombeBridge_cf544bc014.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.894539388146945</v>
+        <v>0.105460611853055</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.273405131745387</v>
+        <v>0.7265948682546129</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.5</v>
+        <v>0.991552587230714</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0569620253164557</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8</v>
+        <v>0.443037974683544</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0.265</v>
+        <v>0.39</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.007305</v>
+        <v>0.013611801242236</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0490743797852477</v>
+        <v>0.0033234758871701</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0103464565700565</v>
+        <v>0.0249658236500342</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.7566037735849</v>
+        <v>3.49020544672719</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2993,7 +2993,11 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3003,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3018,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.40324797025367</v>
+        <v>0.775991573089612</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.88622754491018</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>90.91</v>
+        <v>10.19</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.87800388881725</v>
+        <v>0.0158417485556269</v>
       </c>
       <c r="L29" t="n">
-        <v>-6.84524181030763</v>
+        <v>-0.0225222558755109</v>
       </c>
       <c r="M29" t="n">
-        <v>3.74774114445912</v>
+        <v>0.0455108501689497</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.965794619752778</v>
+        <v>0.155463675717634</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3080,7 +3084,11 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3090,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.768783636774762</v>
+        <v>0.50730234163649</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.52046783625731</v>
       </c>
       <c r="H30" t="n">
+        <v>0.128654970760234</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>4.007</v>
+        <v>0.0025</v>
       </c>
       <c r="K30" t="n">
-        <v>0.14636006205387</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.143682898773902</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.373328531914045</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>3.65260948474844</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3167,7 +3175,11 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3177,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.6408261208260559</v>
+        <v>0.512255873670469</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8</v>
+        <v>0.766081871345029</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2405</v>
+        <v>200</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0049525423728813</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0102471485575692</v>
+        <v>-6.20267728259779</v>
       </c>
       <c r="M31" t="n">
-        <v>0.010872324022416</v>
+        <v>6.80654034678693</v>
       </c>
       <c r="N31" t="n">
-        <v>2.05926917791324</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3254,7 +3266,11 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3264,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.264799404212504</v>
+        <v>0.731293017968537</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.588957055214724</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9</v>
+        <v>0.539877300613497</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J32" t="n">
-        <v>87</v>
+        <v>0.0078127448543849</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.5069396252602359</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-2.61474618396052</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.43256834634188</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.582689224437053</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3312,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3341,7 +3357,11 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3351,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.639742606431872</v>
+        <v>0.050901199230487</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.446666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.0866666666666667</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.89</v>
+        <v>0.0025</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0077111189303307</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.125752692755557</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0622648389468714</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.198229278414671</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3399,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3428,7 +3448,1162 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.572189518390007</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.398692810457516</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.522875816993464</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999172964482628</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.493975903614458</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8.195</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0149081632653067</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0071282201405153</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0231272361624694</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.181917794573602</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.902281974342717</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.116959064327485</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.60233918128655</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.000332347588717</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.000748974709501</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.10782529572339</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.134355558515124</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.549707602339181</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0029889525368248</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0011139106392204</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0074991483650853</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.609990313637731</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.327952430412885</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0058479532163742</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5321637426900589</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0002489209450249</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.000334478021978</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.000799671592775</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.711202700071396</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.438556940877703</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.970588235294118</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0268171806167401</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.210856593243249</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.244576011727459</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.185586025029343</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.007305</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0490743797852477</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0103464565700565</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-2.7566037735849</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>90.91</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.87800388881725</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-6.84524181030763</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.74774114445912</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.965794619752778</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.007</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.14636006205387</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.143682898773902</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.373328531914045</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.65260948474844</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6408261208260559</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.2405</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0049525423728813</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0102471485575692</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.010872324022416</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.05926917791324</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.264799404212504</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>87</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.5069396252602359</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2.61474618396052</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.43256834634188</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.582689224437053</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.639742606431872</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0077111189303307</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.125752692755557</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0622648389468714</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.198229278414671</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>15</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.018463570580858</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>90.955</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.4156976744186</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-2.45225596433372</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.186070875106241</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.556481418744</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OwahangaatBranscombeBridge_cf544bc014.xlsx
+++ b/trend_results/Rivers/OwahangaatBranscombeBridge_cf544bc014.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.508946420119865</v>
+        <v>0.001857915777222</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="H2" t="n">
-        <v>0.518518518518518</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.133991273181847</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.06689560439560439</v>
+        <v>-0.28461038961039</v>
       </c>
       <c r="M2" t="n">
-        <v>0.108705357142857</v>
+        <v>-0.0329131890067836</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-29.7758384848549</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.310345358537677</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.26</v>
+        <v>10.21</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0124829118250168</v>
+        <v>-0.0347857142857144</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.07100915934372511</v>
+        <v>-0.119211136790597</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06422411976193131</v>
+        <v>0.0599029467682386</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.121665807261373</v>
+        <v>-0.340702392612286</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.50336431625546</v>
+        <v>0.0919165931144732</v>
       </c>
       <c r="G4" t="n">
-        <v>0.574074074074074</v>
+        <v>0.518518518518518</v>
       </c>
       <c r="H4" t="n">
         <v>0.314814814814815</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6087541092640369</v>
+        <v>0.69405020981531</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="H5" t="n">
-        <v>0.907407407407407</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="K5" t="n">
-        <v>-5.97464558342421</v>
+        <v>-5.96326530612245</v>
       </c>
       <c r="L5" t="n">
-        <v>-56.0737479319938</v>
+        <v>-34.7742658782355</v>
       </c>
       <c r="M5" t="n">
-        <v>55.6902555902867</v>
+        <v>28.5457885365206</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.43863085037723</v>
+        <v>-2.83965014577259</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.787692455612627</v>
+        <v>0.212587041422985</v>
       </c>
       <c r="G6" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0073171048617621</v>
+        <v>0.0066383773785672</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.000673723822723</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.001333931258284</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-9.20751903179413</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.540964998549824</v>
+        <v>0.604870481916869</v>
       </c>
       <c r="G7" t="n">
-        <v>0.444444444444444</v>
+        <v>0.407407407407407</v>
       </c>
       <c r="H7" t="n">
         <v>0.148148148148148</v>
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.774937006960094</v>
+        <v>0.232137398100768</v>
       </c>
       <c r="G8" t="n">
         <v>0.407407407407407</v>
       </c>
       <c r="H8" t="n">
-        <v>0.555555555555556</v>
+        <v>0.574074074074074</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.027</v>
+        <v>0.056</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.006834075648739</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0036470615177468</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.105460611853055</v>
+        <v>0.000871157792473</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.773584905660377</v>
+        <v>0.792452830188679</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.24</v>
+        <v>8.17</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0272589807852966</v>
+        <v>-0.0675402899254941</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0580483674789302</v>
+        <v>-0.0976604854708344</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0101644674671664</v>
+        <v>-0.034512576980192</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.330812873607969</v>
+        <v>-0.826686535195766</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.800905854891939</v>
+        <v>0.232129166928821</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0555555555555556</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="H10" t="n">
-        <v>0.722222222222222</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.041</v>
+        <v>0.074</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0013209764918625</v>
+        <v>0.0019325396825396</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0135257491449242</v>
+        <v>-0.001780893046941</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0020947547988912</v>
+        <v>0.0136927043838804</v>
       </c>
       <c r="N10" t="n">
-        <v>-3.22189388259163</v>
+        <v>2.61154011154011</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.640122237621759</v>
+        <v>0.113268870088185</v>
       </c>
       <c r="G11" t="n">
-        <v>0.037037037037037</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0.685185185185185</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>19.5</v>
+        <v>0.525</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.372704081632653</v>
+        <v>0.024603490508267</v>
       </c>
       <c r="L11" t="n">
-        <v>-5.61715848171409</v>
+        <v>-0.0101624549699776</v>
       </c>
       <c r="M11" t="n">
-        <v>2.15020040985351</v>
+        <v>0.0593276445790875</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.91130298273155</v>
+        <v>4.68637914443181</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,22 +1464,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.559352277224005</v>
+        <v>0.0048401240351402</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1491,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.51</v>
+        <v>0.0395</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0100205761316872</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0439160338833339</v>
+        <v>0.0033238019133423</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0340823838817026</v>
+        <v>0.0136170683263746</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>25.3685471688285</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.812949824792325</v>
+        <v>0.0183822242449425</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.722222222222222</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.039</v>
+        <v>15.95</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0021897482014388</v>
+        <v>3.53225308641975</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.008674883820438401</v>
+        <v>1.20000038452095</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001796959753065</v>
+        <v>8.94395779183138</v>
       </c>
       <c r="N13" t="n">
-        <v>-5.61473897804833</v>
+        <v>22.1457873756724</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,46 +1646,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.73943176428129</v>
+        <v>0.524141395498961</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0471698113207547</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.547169811320755</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>15.95</v>
+        <v>0.335</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.655757722007722</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-5.22442908944146</v>
+        <v>-0.0160401988133429</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1293467699301</v>
+        <v>0.0175399545693612</v>
       </c>
       <c r="N14" t="n">
-        <v>-4.1113336802992</v>
+        <v>0</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.998989032501314</v>
+        <v>0.522576611931906</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0462962962962963</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.537037037037037</v>
+        <v>0.883928571428571</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4</v>
+        <v>10.23</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0333409402099498</v>
+        <v>0.0018331129962175</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0131377813815444</v>
+        <v>-0.0409413666856342</v>
       </c>
       <c r="M15" t="n">
-        <v>0.058083109785021</v>
+        <v>0.0466012839469422</v>
       </c>
       <c r="N15" t="n">
-        <v>8.33523505248745</v>
+        <v>0.0179189931204057</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.195045914712324</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.504424778761062</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.176991150442478</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.7265948682546129</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.891891891891892</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.28</v>
+        <v>0.0025</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0149081632653058</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0273589222321771</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0596636611856715</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.145021043436827</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.497825109333317</v>
+        <v>0.297446464618911</v>
       </c>
       <c r="G17" t="n">
-        <v>0.539823008849557</v>
+        <v>0.0088495575221238</v>
       </c>
       <c r="H17" t="n">
-        <v>0.168141592920354</v>
+        <v>0.79646017699115</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0025</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3.56558877364246</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-5.19217449909188</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>17.2565059188617</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.78279438682123</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0941871114091309</v>
+        <v>0.233070209585703</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.62037037037037</v>
       </c>
       <c r="H18" t="n">
-        <v>0.805309734513274</v>
+        <v>0.574074074074074</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>0.0077394736876053</v>
       </c>
       <c r="K18" t="n">
-        <v>8.42884615384615</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.55323090940998</v>
+        <v>-4.42356502330314e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>29.4886917123852</v>
+        <v>3.87059329526759e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.21442307692308</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,19 +2116,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.553750809965913</v>
+        <v>0.247628171760086</v>
       </c>
       <c r="G19" t="n">
-        <v>0.660377358490566</v>
+        <v>0.36283185840708</v>
       </c>
       <c r="H19" t="n">
-        <v>0.547169811320755</v>
+        <v>0.115044247787611</v>
       </c>
       <c r="I19" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0073171048617621</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.0001035626169818</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,14 +2192,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,19 +2207,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.699074606231588</v>
+        <v>0.08956925047350971</v>
       </c>
       <c r="G20" t="n">
-        <v>0.336283185840708</v>
+        <v>0.424778761061947</v>
       </c>
       <c r="H20" t="n">
-        <v>0.115044247787611</v>
+        <v>0.548672566371681</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.0145</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0004193017933309</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.391075328280897</v>
+        <v>0.0065566090430759</v>
       </c>
       <c r="G21" t="n">
-        <v>0.442477876106195</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.539823008849557</v>
+        <v>0.54954954954955</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.011</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0183330115830117</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0284937705125047</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>-0.0059919840468301</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-0.223029337992843</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,46 +2370,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5</v>
+        <v>0.010282911459992</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.115044247787611</v>
       </c>
       <c r="H22" t="n">
-        <v>0.522935779816514</v>
+        <v>0.7079646017699111</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>8.24</v>
+        <v>0.0314</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0017476076555023</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0115952380952382</v>
+        <v>0.0005023389371114</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0118561535674349</v>
+        <v>0.0040047916181528</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.56562947612227</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.398058305561901</v>
+        <v>0.0007752901799067999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.115044247787611</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.654867256637168</v>
+        <v>0.592920353982301</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.027</v>
+        <v>0.484</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0003334094020994</v>
+        <v>0.015051510989011</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0001997044546712</v>
+        <v>0.0099749589080073</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0010026650619847</v>
+        <v>0.0222488269950372</v>
       </c>
       <c r="N23" t="n">
-        <v>1.23484963740555</v>
+        <v>3.1098163200436</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5</v>
+        <v>0.0218238450230667</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0353982300884956</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.575221238938053</v>
+        <v>0.628318584070796</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14</v>
+        <v>0.039</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0014908163265306</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.501527173243253</v>
+        <v>0.0002080524663394</v>
       </c>
       <c r="M24" t="n">
-        <v>0.812133741529974</v>
+        <v>0.0036278812639786</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>3.82260596546311</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0986522459568403</v>
+        <v>0.0588818365107596</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.628318584070796</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.484</v>
+        <v>15</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0074897470950102</v>
+        <v>0.764754634678299</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0022950004939347</v>
+        <v>-0.06637138669478081</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0147464068698622</v>
+        <v>1.7902074600748</v>
       </c>
       <c r="N25" t="n">
-        <v>1.54746840805997</v>
+        <v>5.09836423118866</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.631789123809277</v>
+        <v>0.54116592774299</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0382165605095541</v>
       </c>
       <c r="H26" t="n">
-        <v>0.619469026548673</v>
+        <v>0.464968152866242</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.038</v>
+        <v>0.34</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0001433477237048</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0011994434297331</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0011387327475879</v>
+        <v>0.009999490177049</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.377230851854912</v>
+        <v>0</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.74869351202418</v>
+        <v>0.692233498344767</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.982300884955752</v>
+        <v>0.869047619047619</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.5</v>
+        <v>10.2</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.225907224958949</v>
+        <v>0.011847410389486</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.72319133141334</v>
+        <v>-0.0260215546995107</v>
       </c>
       <c r="M27" t="n">
-        <v>0.288358539959494</v>
+        <v>0.0399208864697166</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.55798086178586</v>
+        <v>0.116151082249862</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.991552587230714</v>
+        <v>0.274694589735923</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0569620253164557</v>
+        <v>0.488372093023256</v>
       </c>
       <c r="H28" t="n">
-        <v>0.443037974683544</v>
+        <v>0.127906976744186</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.39</v>
+        <v>0.005</v>
       </c>
       <c r="K28" t="n">
-        <v>0.013611801242236</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0033234758871701</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0249658236500342</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>3.49020544672719</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3018,35 +3018,35 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.775991573089612</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.005813953488372</v>
       </c>
       <c r="H29" t="n">
-        <v>0.88622754491018</v>
+        <v>0.767441860465116</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.19</v>
+        <v>200</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0158417485556269</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0225222558755109</v>
+        <v>-5.22929850329423</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0455108501689497</v>
+        <v>6.93416675023894</v>
       </c>
       <c r="N29" t="n">
-        <v>0.155463675717634</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.50730234163649</v>
+        <v>0.6905629675260641</v>
       </c>
       <c r="G30" t="n">
-        <v>0.52046783625731</v>
+        <v>0.554878048780488</v>
       </c>
       <c r="H30" t="n">
-        <v>0.128654970760234</v>
+        <v>0.567073170731707</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0025</v>
+        <v>0.008279288255707701</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,43 +3189,43 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.512255873670469</v>
+        <v>0.0494800770097029</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.432098765432099</v>
       </c>
       <c r="H31" t="n">
-        <v>0.766081871345029</v>
+        <v>0.0802469135802469</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>200</v>
+        <v>0.0025</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-6.20267728259779</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>6.80654034678693</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,19 +3295,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.731293017968537</v>
+        <v>0.185850779191754</v>
       </c>
       <c r="G32" t="n">
-        <v>0.588957055214724</v>
+        <v>0.395061728395062</v>
       </c>
       <c r="H32" t="n">
-        <v>0.539877300613497</v>
+        <v>0.530864197530864</v>
       </c>
       <c r="I32" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0078127448543849</v>
+        <v>0.01575</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.050901199230487</v>
+        <v>0.8057787449964861</v>
       </c>
       <c r="G33" t="n">
-        <v>0.446666666666667</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0866666666666667</v>
+        <v>0.48502994011976</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0025</v>
+        <v>8.19</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0041411564625849</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0040635593655339</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0124234693877548</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.0505635709717332</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,28 +3473,28 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.572189518390007</v>
+        <v>0.518405460137608</v>
       </c>
       <c r="G34" t="n">
-        <v>0.398692810457516</v>
+        <v>0.0988372093023256</v>
       </c>
       <c r="H34" t="n">
-        <v>0.522875816993464</v>
+        <v>0.674418604651163</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.012</v>
+        <v>0.033</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-0.0004289459689131</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.0009272332913615</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999172964482628</v>
+        <v>0.0147269922177871</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.493975903614458</v>
+        <v>0.546511627906977</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8.195</v>
+        <v>0.497</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0149081632653067</v>
+        <v>0.0059860693799508</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0071282201405153</v>
+        <v>0.0009899835856143999</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0231272361624694</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="N35" t="n">
-        <v>0.181917794573602</v>
+        <v>1.2044405191048</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.902281974342717</v>
+        <v>0.08773684327539601</v>
       </c>
       <c r="G36" t="n">
-        <v>0.116959064327485</v>
+        <v>0.005813953488372</v>
       </c>
       <c r="H36" t="n">
-        <v>0.60233918128655</v>
+        <v>0.546511627906977</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03</v>
+        <v>0.0395</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.000332347588717</v>
+        <v>0.0006241455912508001</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.000748974709501</v>
+        <v>-0.0001109065592492</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0013329654006119</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.10782529572339</v>
+        <v>1.58011542088824</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.134355558515124</v>
+        <v>0.178890657277497</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.549707602339181</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.49</v>
+        <v>15.4</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0029889525368248</v>
+        <v>0.172976320832193</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0011139106392204</v>
+        <v>-0.119863990010345</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0074991483650853</v>
+        <v>0.607869525401572</v>
       </c>
       <c r="N37" t="n">
-        <v>0.609990313637731</v>
+        <v>1.12322286254671</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3837,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.327952430412885</v>
+        <v>0.914706533564279</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0058479532163742</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5321637426900589</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.035</v>
+        <v>0.237</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0002489209450249</v>
+        <v>0.0077102137548629</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.000334478021978</v>
+        <v>-0.0014233801946651</v>
       </c>
       <c r="M38" t="n">
-        <v>0.000799671592775</v>
+        <v>0.0117848306337625</v>
       </c>
       <c r="N38" t="n">
-        <v>0.711202700071396</v>
+        <v>3.2532547488873</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3899,11 +3899,7 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,14 +3909,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3928,31 +3924,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.438556940877703</v>
+        <v>0.5</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.970588235294118</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.45</v>
+        <v>87</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0268171806167401</v>
+        <v>0.284147930760047</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.210856593243249</v>
+        <v>-1.40187630775437</v>
       </c>
       <c r="M39" t="n">
-        <v>0.244576011727459</v>
+        <v>1.79409295173705</v>
       </c>
       <c r="N39" t="n">
-        <v>0.185586025029343</v>
+        <v>0.326606816965572</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3990,11 +3986,7 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4004,11 +3996,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -4019,31 +4011,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.5</v>
+        <v>0.912345959595863</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.265</v>
+        <v>3.82</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.007305</v>
+        <v>0.0352678496882525</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0490743797852477</v>
+        <v>-0.0217716853723159</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0103464565700565</v>
+        <v>0.0761847264961641</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.7566037735849</v>
+        <v>0.9232421384359289</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4044,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4095,7 +4087,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4106,31 +4098,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.40324797025367</v>
+        <v>0.018463570580858</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>90.91</v>
+        <v>90.955</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.87800388881725</v>
+        <v>-1.4156976744186</v>
       </c>
       <c r="L41" t="n">
-        <v>-6.84524181030763</v>
+        <v>-2.45225596433372</v>
       </c>
       <c r="M41" t="n">
-        <v>3.74774114445912</v>
+        <v>-0.186070875106241</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.965794619752778</v>
+        <v>-1.556481418744</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4139,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4169,441 +4161,6 @@
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Owahanga at Branscombe Bridge</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>5</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.768783636774762</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.007</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.14636006205387</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-0.143682898773902</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.373328531914045</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3.65260948474844</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>1879408</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5496982</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>Puketoi ki Tai</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>Owahanga</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Owha_1</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Owahanga at Branscombe Bridge</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>10</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0.6408261208260559</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.2405</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.0049525423728813</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-0.0102471485575692</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.010872324022416</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.05926917791324</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>1879408</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5496982</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>Puketoi ki Tai</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>Owahanga</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Owha_1</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Owahanga at Branscombe Bridge</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>10</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.264799404212504</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>87</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.5069396252602359</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-2.61474618396052</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.43256834634188</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-0.582689224437053</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>1879408</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5496982</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Puketoi ki Tai</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Owahanga</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Owha_1</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Owahanga at Branscombe Bridge</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>10</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.639742606431872</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.0077111189303307</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-0.125752692755557</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.0622648389468714</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.198229278414671</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>1879408</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5496982</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>Puketoi ki Tai</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Owahanga</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Owha_1</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Owahanga at Branscombe Bridge</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>15</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0.018463570580858</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>90.955</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-1.4156976744186</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-2.45225596433372</v>
-      </c>
-      <c r="M46" t="n">
-        <v>-0.186070875106241</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-1.556481418744</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Extremely unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>1879408</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5496982</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>Puketoi ki Tai</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>Owahanga</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Owha_1</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OwahangaatBranscombeBridge_cf544bc014.xlsx
+++ b/trend_results/Rivers/OwahangaatBranscombeBridge_cf544bc014.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -142,9 +142,6 @@
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
@@ -154,31 +151,28 @@
     <t>Unlikely increasing</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Very likely improving</t>
+    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -563,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,38 +651,38 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.001857915777222</v>
+        <v>0.0008436067642769</v>
       </c>
       <c r="G2">
-        <v>0.0576923076923077</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="H2">
-        <v>0.538461538461538</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="K2">
-        <v>-0.133991273181847</v>
+        <v>-0.155599775784753</v>
       </c>
       <c r="L2">
-        <v>-0.28461038961039</v>
+        <v>-0.289880952380952</v>
       </c>
       <c r="M2">
-        <v>-0.0329131890067836</v>
+        <v>-0.0548553730461409</v>
       </c>
       <c r="N2">
-        <v>-29.7758384848549</v>
+        <v>-48.6249299327354</v>
       </c>
       <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
       <c r="Q2">
         <v>1879408</v>
       </c>
@@ -696,19 +690,19 @@
         <v>5496982</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="V2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,13 +722,13 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.310345358537677</v>
+        <v>0.254681824283017</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.981132075471698</v>
+        <v>0.943396226415094</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -746,19 +740,19 @@
         <v>-0.0347857142857144</v>
       </c>
       <c r="L3">
-        <v>-0.119211136790597</v>
+        <v>-0.142031109216674</v>
       </c>
       <c r="M3">
-        <v>0.0599029467682386</v>
+        <v>0.0307585536929165</v>
       </c>
       <c r="N3">
         <v>-0.340702392612286</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q3">
         <v>1879408</v>
@@ -767,19 +761,19 @@
         <v>5496982</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
         <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,13 +793,13 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.0919165931144732</v>
+        <v>0.306403965886875</v>
       </c>
       <c r="G4">
-        <v>0.518518518518518</v>
+        <v>0.574074074074074</v>
       </c>
       <c r="H4">
-        <v>0.314814814814815</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -826,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q4">
         <v>1879408</v>
@@ -838,19 +832,19 @@
         <v>5496982</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,13 +858,13 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.69405020981531</v>
+        <v>0.685072730478399</v>
       </c>
       <c r="G5">
         <v>0.0185185185185185</v>
@@ -882,25 +876,25 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>210</v>
+        <v>180.8</v>
       </c>
       <c r="K5">
-        <v>-5.96326530612245</v>
+        <v>-5.87605118829982</v>
       </c>
       <c r="L5">
-        <v>-34.7742658782355</v>
+        <v>-33.3244052432023</v>
       </c>
       <c r="M5">
-        <v>28.5457885365206</v>
+        <v>15.8699405062884</v>
       </c>
       <c r="N5">
-        <v>-2.83965014577259</v>
+        <v>-3.25002831211273</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q5">
         <v>1879408</v>
@@ -909,19 +903,19 @@
         <v>5496982</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -941,19 +935,19 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.212587041422985</v>
+        <v>0.0241569501080644</v>
       </c>
       <c r="G6">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="H6">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0066383773785672</v>
+        <v>0.0111043992402359</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -962,16 +956,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0026782615472204</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q6">
         <v>1879408</v>
@@ -980,19 +974,19 @@
         <v>5496982</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,25 +1006,25 @@
         <v>40</v>
       </c>
       <c r="F7">
-        <v>0.604870481916869</v>
+        <v>0.887056903025122</v>
       </c>
       <c r="G7">
-        <v>0.407407407407407</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="H7">
-        <v>0.148148148148148</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.003</v>
+        <v>0.0025</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-0.0002767087275308</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1039,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>1879408</v>
@@ -1051,19 +1045,19 @@
         <v>5496982</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,19 +1077,19 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.232137398100768</v>
+        <v>0.474671135968196</v>
       </c>
       <c r="G8">
-        <v>0.407407407407407</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="H8">
-        <v>0.574074074074074</v>
+        <v>0.5</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.056</v>
+        <v>0.0055</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1104,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.0036470615177468</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
         <v>48</v>
@@ -1122,19 +1116,19 @@
         <v>5496982</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,37 +1148,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.000871157792473</v>
+        <v>0.0003981593041639</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.792452830188679</v>
+        <v>0.716981132075472</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.17</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="K9">
-        <v>-0.0675402899254941</v>
+        <v>-0.0667674032997309</v>
       </c>
       <c r="L9">
-        <v>-0.0976604854708344</v>
+        <v>-0.09783482142857219</v>
       </c>
       <c r="M9">
-        <v>-0.034512576980192</v>
+        <v>-0.037676039127454</v>
       </c>
       <c r="N9">
-        <v>-0.826686535195766</v>
+        <v>-0.822258661326735</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1879408</v>
@@ -1193,16 +1187,16 @@
         <v>5496982</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1216,44 +1210,44 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.232129166928821</v>
+        <v>0.0079837405630284</v>
       </c>
       <c r="G10">
-        <v>0.0185185185185185</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.814814814814815</v>
+        <v>0.87037037037037</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.074</v>
+        <v>0.02875</v>
       </c>
       <c r="K10">
-        <v>0.0019325396825396</v>
+        <v>0.0077212775735294</v>
       </c>
       <c r="L10">
-        <v>-0.001780893046941</v>
+        <v>0.0021110001383349</v>
       </c>
       <c r="M10">
-        <v>0.0136927043838804</v>
+        <v>0.0319211189492952</v>
       </c>
       <c r="N10">
-        <v>2.61154011154011</v>
+        <v>26.8566176470588</v>
       </c>
       <c r="O10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" t="s">
         <v>43</v>
       </c>
-      <c r="P10" t="s">
-        <v>48</v>
-      </c>
       <c r="Q10">
         <v>1879408</v>
       </c>
@@ -1261,19 +1255,19 @@
         <v>5496982</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" t="s">
         <v>58</v>
-      </c>
-      <c r="W10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1293,7 +1287,7 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.113268870088185</v>
+        <v>0.579863747333026</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1305,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.525</v>
+        <v>0.51</v>
       </c>
       <c r="K11">
-        <v>0.024603490508267</v>
+        <v>-0.0050309917355371</v>
       </c>
       <c r="L11">
-        <v>-0.0101624549699776</v>
+        <v>-0.0357186877193478</v>
       </c>
       <c r="M11">
-        <v>0.0593276445790875</v>
+        <v>0.0280658825183131</v>
       </c>
       <c r="N11">
-        <v>4.68637914443181</v>
+        <v>-0.986468967752391</v>
       </c>
       <c r="O11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11" t="s">
         <v>48</v>
@@ -1332,19 +1326,19 @@
         <v>5496982</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" t="s">
         <v>58</v>
-      </c>
-      <c r="W11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1364,7 +1358,7 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.0048401240351402</v>
+        <v>0.0616457989990045</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1376,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0395</v>
+        <v>0.036</v>
       </c>
       <c r="K12">
-        <v>0.0100205761316872</v>
+        <v>0.0030693277310924</v>
       </c>
       <c r="L12">
-        <v>0.0033238019133423</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.0136170683263746</v>
+        <v>0.0119900392385607</v>
       </c>
       <c r="N12">
-        <v>25.3685471688285</v>
+        <v>8.525910364145661</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q12">
         <v>1879408</v>
@@ -1403,19 +1397,19 @@
         <v>5496982</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" t="s">
         <v>58</v>
-      </c>
-      <c r="W12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,7 +1429,7 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.0183822242449425</v>
+        <v>0.210923987726681</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1447,25 +1441,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>15.95</v>
+        <v>11.75</v>
       </c>
       <c r="K13">
-        <v>3.53225308641975</v>
+        <v>0.704958041958042</v>
       </c>
       <c r="L13">
-        <v>1.20000038452095</v>
+        <v>-0.8353593776188341</v>
       </c>
       <c r="M13">
-        <v>8.94395779183138</v>
+        <v>4.34808729466168</v>
       </c>
       <c r="N13">
-        <v>22.1457873756724</v>
+        <v>5.99964291028121</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q13">
         <v>1879408</v>
@@ -1474,19 +1468,19 @@
         <v>5496982</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,40 +1497,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>0.524141395498961</v>
+        <v>0.199634571585533</v>
       </c>
       <c r="G14">
-        <v>0.0471698113207547</v>
+        <v>0.0485436893203883</v>
       </c>
       <c r="H14">
-        <v>0.547169811320755</v>
+        <v>0.5436893203883491</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14">
-        <v>0.335</v>
+        <v>0.3</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-0.0099122608369051</v>
       </c>
       <c r="L14">
-        <v>-0.0160401988133429</v>
+        <v>-0.0249897885311518</v>
       </c>
       <c r="M14">
-        <v>0.0175399545693612</v>
+        <v>0.0127706162244282</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>-3.30408694563504</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q14">
         <v>1879408</v>
@@ -1545,19 +1539,19 @@
         <v>5496982</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
         <v>57</v>
-      </c>
-      <c r="V14" t="s">
-        <v>58</v>
-      </c>
-      <c r="W14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,37 +1571,37 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.522576611931906</v>
+        <v>0.125281931914161</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.883928571428571</v>
+        <v>0.884955752212389</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.23</v>
+        <v>10.25</v>
       </c>
       <c r="K15">
-        <v>0.0018331129962175</v>
+        <v>-0.0212573645968423</v>
       </c>
       <c r="L15">
-        <v>-0.0409413666856342</v>
+        <v>-0.048623777520776</v>
       </c>
       <c r="M15">
-        <v>0.0466012839469422</v>
+        <v>0.0143116640568516</v>
       </c>
       <c r="N15">
-        <v>0.0179189931204057</v>
+        <v>-0.207388922896022</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q15">
         <v>1879408</v>
@@ -1616,19 +1610,19 @@
         <v>5496982</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" t="s">
         <v>58</v>
-      </c>
-      <c r="W15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1642,19 +1636,19 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.195045914712324</v>
+        <v>0.061613002796378</v>
       </c>
       <c r="G16">
-        <v>0.504424778761062</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="H16">
-        <v>0.176991150442478</v>
+        <v>0.175438596491228</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1675,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q16">
         <v>1879408</v>
@@ -1687,19 +1681,19 @@
         <v>5496982</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1713,43 +1707,43 @@
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.297446464618911</v>
+        <v>0.692193362869187</v>
       </c>
       <c r="G17">
-        <v>0.0088495575221238</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="H17">
-        <v>0.79646017699115</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K17">
-        <v>3.56558877364246</v>
+        <v>-2.61684881602914</v>
       </c>
       <c r="L17">
-        <v>-5.19217449909188</v>
+        <v>-11.6899789767617</v>
       </c>
       <c r="M17">
-        <v>17.2565059188617</v>
+        <v>6.77506924593586</v>
       </c>
       <c r="N17">
-        <v>1.78279438682123</v>
+        <v>-1.45380489779397</v>
       </c>
       <c r="O17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q17">
         <v>1879408</v>
@@ -1758,19 +1752,19 @@
         <v>5496982</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,37 +1784,37 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.233070209585703</v>
+        <v>0.0423102882440955</v>
       </c>
       <c r="G18">
-        <v>0.62037037037037</v>
+        <v>0.572727272727273</v>
       </c>
       <c r="H18">
-        <v>0.574074074074074</v>
+        <v>0.6181818181818181</v>
       </c>
       <c r="I18">
         <v>26</v>
       </c>
       <c r="J18">
-        <v>0.0077394736876053</v>
+        <v>0.0084405314049033</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-4.42356502330314E-05</v>
+        <v>-2.66162866590982E-06</v>
       </c>
       <c r="M18">
-        <v>3.87059329526759E-05</v>
+        <v>0.0005881496301518</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1879408</v>
@@ -1829,19 +1823,19 @@
         <v>5496982</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,13 +1855,13 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.247628171760086</v>
+        <v>0.660564536138933</v>
       </c>
       <c r="G19">
-        <v>0.36283185840708</v>
+        <v>0.429824561403509</v>
       </c>
       <c r="H19">
-        <v>0.115044247787611</v>
+        <v>0.12280701754386</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1882,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0001035626169818</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19" t="s">
         <v>48</v>
@@ -1900,19 +1894,19 @@
         <v>5496982</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1926,25 +1920,25 @@
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
       </c>
       <c r="F20">
-        <v>0.08956925047350971</v>
+        <v>0.0172702477916185</v>
       </c>
       <c r="G20">
-        <v>0.424778761061947</v>
+        <v>0.447368421052632</v>
       </c>
       <c r="H20">
-        <v>0.548672566371681</v>
+        <v>0.517543859649123</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.0145</v>
+        <v>0.0115</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1953,16 +1947,16 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0004193017933309</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q20">
         <v>1879408</v>
@@ -1971,19 +1965,19 @@
         <v>5496982</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,37 +1997,37 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.0065566090430759</v>
+        <v>3.04941070480291E-05</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.54954954954955</v>
+        <v>0.548672566371681</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.220000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K21">
-        <v>-0.0183330115830117</v>
+        <v>-0.025227367595004</v>
       </c>
       <c r="L21">
-        <v>-0.0284937705125047</v>
+        <v>-0.0349579751673103</v>
       </c>
       <c r="M21">
-        <v>-0.0059919840468301</v>
+        <v>-0.0162694169585355</v>
       </c>
       <c r="N21">
-        <v>-0.223029337992843</v>
+        <v>-0.307650824329317</v>
       </c>
       <c r="O21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q21">
         <v>1879408</v>
@@ -2042,16 +2036,16 @@
         <v>5496982</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,41 +2062,41 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22">
-        <v>0.010282911459992</v>
+        <v>0.0018150819484293</v>
       </c>
       <c r="G22">
-        <v>0.115044247787611</v>
+        <v>0.114035087719298</v>
       </c>
       <c r="H22">
-        <v>0.7079646017699111</v>
+        <v>0.710526315789474</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.0314</v>
+        <v>0.03025</v>
       </c>
       <c r="K22">
-        <v>0.0017476076555023</v>
+        <v>0.0016895918367346</v>
       </c>
       <c r="L22">
-        <v>0.0005023389371114</v>
+        <v>0.0007774855992913</v>
       </c>
       <c r="M22">
-        <v>0.0040047916181528</v>
+        <v>0.0037795577494194</v>
       </c>
       <c r="N22">
-        <v>5.56562947612227</v>
+        <v>5.58542755945353</v>
       </c>
       <c r="O22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" t="s">
         <v>43</v>
       </c>
-      <c r="P22" t="s">
-        <v>51</v>
-      </c>
       <c r="Q22">
         <v>1879408</v>
       </c>
@@ -2110,19 +2104,19 @@
         <v>5496982</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" t="s">
         <v>58</v>
-      </c>
-      <c r="W22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2142,37 +2136,37 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.0007752901799067999</v>
+        <v>0.0402533326822444</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.592920353982301</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.484</v>
+        <v>0.48</v>
       </c>
       <c r="K23">
-        <v>0.015051510989011</v>
+        <v>0.0100034234851078</v>
       </c>
       <c r="L23">
-        <v>0.0099749589080073</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0222488269950372</v>
+        <v>0.0174760765550239</v>
       </c>
       <c r="N23">
-        <v>3.1098163200436</v>
+        <v>2.08404655939747</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q23">
         <v>1879408</v>
@@ -2181,19 +2175,19 @@
         <v>5496982</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" t="s">
         <v>58</v>
-      </c>
-      <c r="W23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2213,37 +2207,37 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.0218238450230667</v>
+        <v>0.0198999370303502</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.628318584070796</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="K24">
-        <v>0.0014908163265306</v>
+        <v>0.001133436772692</v>
       </c>
       <c r="L24">
-        <v>0.0002080524663394</v>
+        <v>0.0001236079443256</v>
       </c>
       <c r="M24">
-        <v>0.0036278812639786</v>
+        <v>0.002684091612941</v>
       </c>
       <c r="N24">
-        <v>3.82260596546311</v>
+        <v>3.06334262889732</v>
       </c>
       <c r="O24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q24">
         <v>1879408</v>
@@ -2252,19 +2246,19 @@
         <v>5496982</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" t="s">
         <v>58</v>
-      </c>
-      <c r="W24" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,7 +2278,7 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.0588818365107596</v>
+        <v>0.134393208170771</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2296,25 +2290,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15</v>
+        <v>13.6</v>
       </c>
       <c r="K25">
-        <v>0.764754634678299</v>
+        <v>0.173928571428571</v>
       </c>
       <c r="L25">
-        <v>-0.06637138669478081</v>
+        <v>-0.177818263478876</v>
       </c>
       <c r="M25">
-        <v>1.7902074600748</v>
+        <v>1.05086884650749</v>
       </c>
       <c r="N25">
-        <v>5.09836423118866</v>
+        <v>1.27888655462185</v>
       </c>
       <c r="O25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q25">
         <v>1879408</v>
@@ -2323,19 +2317,19 @@
         <v>5496982</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2352,40 +2346,40 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>0.54116592774299</v>
+        <v>0.326969045520621</v>
       </c>
       <c r="G26">
-        <v>0.0382165605095541</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="H26">
-        <v>0.464968152866242</v>
+        <v>0.467948717948718</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.0025008558712769</v>
       </c>
       <c r="L26">
-        <v>-0.0100343406593407</v>
+        <v>-0.0127083243344157</v>
       </c>
       <c r="M26">
-        <v>0.009999490177049</v>
+        <v>0.0060284381613891</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-0.833618623758987</v>
       </c>
       <c r="O26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1879408</v>
@@ -2394,19 +2388,19 @@
         <v>5496982</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
+        <v>55</v>
+      </c>
+      <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="s">
         <v>57</v>
-      </c>
-      <c r="V26" t="s">
-        <v>58</v>
-      </c>
-      <c r="W26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,37 +2420,37 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.692233498344767</v>
+        <v>0.872427771677406</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.869047619047619</v>
+        <v>0.857988165680473</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.2</v>
+        <v>10.19</v>
       </c>
       <c r="K27">
-        <v>0.011847410389486</v>
+        <v>0.0184073957157824</v>
       </c>
       <c r="L27">
-        <v>-0.0260215546995107</v>
+        <v>-0.0100316904318246</v>
       </c>
       <c r="M27">
-        <v>0.0399208864697166</v>
+        <v>0.0434001835092327</v>
       </c>
       <c r="N27">
-        <v>0.116151082249862</v>
+        <v>0.180641763648502</v>
       </c>
       <c r="O27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q27">
         <v>1879408</v>
@@ -2465,19 +2459,19 @@
         <v>5496982</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" t="s">
         <v>58</v>
-      </c>
-      <c r="W27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,10 +2491,10 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.274694589735923</v>
+        <v>0.5070793373776989</v>
       </c>
       <c r="G28">
-        <v>0.488372093023256</v>
+        <v>0.505813953488372</v>
       </c>
       <c r="H28">
         <v>0.127906976744186</v>
@@ -2509,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.005</v>
+        <v>0.0025</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2524,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" t="s">
         <v>48</v>
@@ -2536,19 +2530,19 @@
         <v>5496982</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2565,16 +2559,16 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F29">
-        <v>0.5</v>
+        <v>0.827208341070988</v>
       </c>
       <c r="G29">
         <v>0.005813953488372</v>
       </c>
       <c r="H29">
-        <v>0.767441860465116</v>
+        <v>0.784883720930233</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2583,22 +2577,22 @@
         <v>200</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>-2.58901308615049</v>
       </c>
       <c r="L29">
-        <v>-5.22929850329423</v>
+        <v>-7.48840121928898</v>
       </c>
       <c r="M29">
-        <v>6.93416675023894</v>
+        <v>1.8968273266832</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-1.29450654307525</v>
       </c>
       <c r="O29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q29">
         <v>1879408</v>
@@ -2607,19 +2601,19 @@
         <v>5496982</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,19 +2633,19 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.6905629675260641</v>
+        <v>0.674736373452243</v>
       </c>
       <c r="G30">
-        <v>0.554878048780488</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="H30">
-        <v>0.567073170731707</v>
+        <v>0.591463414634146</v>
       </c>
       <c r="I30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J30">
-        <v>0.008279288255707701</v>
+        <v>0.0094319479842483</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2666,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q30">
         <v>1879408</v>
@@ -2678,19 +2672,19 @@
         <v>5496982</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2710,13 +2704,13 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.0494800770097029</v>
+        <v>0.24106857154167</v>
       </c>
       <c r="G31">
-        <v>0.432098765432099</v>
+        <v>0.441860465116279</v>
       </c>
       <c r="H31">
-        <v>0.0802469135802469</v>
+        <v>0.08139534883720929</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2737,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q31">
         <v>1879408</v>
@@ -2749,19 +2743,19 @@
         <v>5496982</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2781,19 +2775,19 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.185850779191754</v>
+        <v>0.424426244274315</v>
       </c>
       <c r="G32">
-        <v>0.395061728395062</v>
+        <v>0.418604651162791</v>
       </c>
       <c r="H32">
-        <v>0.530864197530864</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.01575</v>
+        <v>0.0115</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2808,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P32" t="s">
         <v>48</v>
@@ -2820,19 +2814,19 @@
         <v>5496982</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,43 +2840,43 @@
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.8057787449964861</v>
+        <v>0.06782482651158191</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.48502994011976</v>
+        <v>0.467065868263473</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>8.19</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K33">
-        <v>0.0041411564625849</v>
+        <v>-0.00554501916636</v>
       </c>
       <c r="L33">
-        <v>-0.0040635593655339</v>
+        <v>-0.0119863082213349</v>
       </c>
       <c r="M33">
-        <v>0.0124234693877548</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>0.0505635709717332</v>
+        <v>-0.06762218495561061</v>
       </c>
       <c r="O33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q33">
         <v>1879408</v>
@@ -2891,16 +2885,16 @@
         <v>5496982</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2920,37 +2914,37 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>0.518405460137608</v>
+        <v>0.614549127243716</v>
       </c>
       <c r="G34">
-        <v>0.0988372093023256</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="H34">
-        <v>0.674418604651163</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0.033</v>
+        <v>0.0322</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>-0.0004289459689131</v>
+        <v>-0.0004996677751323</v>
       </c>
       <c r="M34">
-        <v>0.0009272332913615</v>
+        <v>0.0008067114136395</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q34">
         <v>1879408</v>
@@ -2959,19 +2953,19 @@
         <v>5496982</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" t="s">
         <v>58</v>
-      </c>
-      <c r="W34" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2991,7 +2985,7 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.0147269922177871</v>
+        <v>0.0698141801824842</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3003,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.497</v>
+        <v>0.49</v>
       </c>
       <c r="K35">
-        <v>0.0059860693799508</v>
+        <v>0.003735935901807</v>
       </c>
       <c r="L35">
-        <v>0.0009899835856143999</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0100343406593407</v>
+        <v>0.008891560688269301</v>
       </c>
       <c r="N35">
-        <v>1.2044405191048</v>
+        <v>0.762435898327965</v>
       </c>
       <c r="O35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q35">
         <v>1879408</v>
@@ -3030,19 +3024,19 @@
         <v>5496982</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" t="s">
         <v>58</v>
-      </c>
-      <c r="W35" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,37 +3056,37 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.08773684327539601</v>
+        <v>0.143276184590957</v>
       </c>
       <c r="G36">
         <v>0.005813953488372</v>
       </c>
       <c r="H36">
-        <v>0.546511627906977</v>
+        <v>0.552325581395349</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.0395</v>
+        <v>0.038</v>
       </c>
       <c r="K36">
-        <v>0.0006241455912508001</v>
+        <v>0.0004297058823529</v>
       </c>
       <c r="L36">
-        <v>-0.0001109065592492</v>
+        <v>-0.0002164945895268</v>
       </c>
       <c r="M36">
-        <v>0.0013329654006119</v>
+        <v>0.0010015884449553</v>
       </c>
       <c r="N36">
-        <v>1.58011542088824</v>
+        <v>1.13080495356037</v>
       </c>
       <c r="O36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q36">
         <v>1879408</v>
@@ -3101,19 +3095,19 @@
         <v>5496982</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W36" t="s">
         <v>58</v>
-      </c>
-      <c r="W36" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3133,34 +3127,34 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.178890657277497</v>
+        <v>0.391320004971668</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.9649122807017541</v>
+        <v>0.976608187134503</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>15.4</v>
+        <v>14.6</v>
       </c>
       <c r="K37">
-        <v>0.172976320832193</v>
+        <v>0.0564303513580862</v>
       </c>
       <c r="L37">
-        <v>-0.119863990010345</v>
+        <v>-0.26717935470195</v>
       </c>
       <c r="M37">
-        <v>0.607869525401572</v>
+        <v>0.313520061820226</v>
       </c>
       <c r="N37">
-        <v>1.12322286254671</v>
+        <v>0.386509255877303</v>
       </c>
       <c r="O37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P37" t="s">
         <v>48</v>
@@ -3172,19 +3166,19 @@
         <v>5496982</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3204,13 +3198,13 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.914706533564279</v>
+        <v>0.5</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.777777777777778</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3219,22 +3213,22 @@
         <v>0.237</v>
       </c>
       <c r="K38">
-        <v>0.0077102137548629</v>
+        <v>0.0018527173913043</v>
       </c>
       <c r="L38">
-        <v>-0.0014233801946651</v>
+        <v>-0.0106545732797471</v>
       </c>
       <c r="M38">
-        <v>0.0117848306337625</v>
+        <v>0.0109790595014712</v>
       </c>
       <c r="N38">
-        <v>3.2532547488873</v>
+        <v>0.781737295909008</v>
       </c>
       <c r="O38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q38">
         <v>1879408</v>
@@ -3243,16 +3237,16 @@
         <v>5496982</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3272,37 +3266,37 @@
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0.377227088747045</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K39">
-        <v>0.284147930760047</v>
+        <v>-0.191530870095781</v>
       </c>
       <c r="L39">
-        <v>-1.40187630775437</v>
+        <v>-2.38980152266734</v>
       </c>
       <c r="M39">
-        <v>1.79409295173705</v>
+        <v>1.79717955293578</v>
       </c>
       <c r="N39">
-        <v>0.326606816965572</v>
+        <v>-0.228012940590216</v>
       </c>
       <c r="O39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q39">
         <v>1879408</v>
@@ -3311,16 +3305,16 @@
         <v>5496982</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3340,7 +3334,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>0.912345959595863</v>
+        <v>0.767243915062907</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3352,25 +3346,25 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>3.82</v>
+        <v>3.908</v>
       </c>
       <c r="K40">
-        <v>0.0352678496882525</v>
+        <v>0.0116002471744912</v>
       </c>
       <c r="L40">
-        <v>-0.0217716853723159</v>
+        <v>-0.0314798907433755</v>
       </c>
       <c r="M40">
-        <v>0.0761847264961641</v>
+        <v>0.0539463755565061</v>
       </c>
       <c r="N40">
-        <v>0.9232421384359289</v>
+        <v>0.296833346327821</v>
       </c>
       <c r="O40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P40" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q40">
         <v>1879408</v>
@@ -3379,16 +3373,16 @@
         <v>5496982</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3396,7 +3390,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -3408,7 +3402,7 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.018463570580858</v>
+        <v>0.29146943500005</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3420,25 +3414,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>90.955</v>
+        <v>0.2305</v>
       </c>
       <c r="K41">
-        <v>-1.4156976744186</v>
+        <v>-0.0011744372990353</v>
       </c>
       <c r="L41">
-        <v>-2.45225596433372</v>
+        <v>-0.0072755549369556</v>
       </c>
       <c r="M41">
-        <v>-0.186070875106241</v>
+        <v>0.0049790394348257</v>
       </c>
       <c r="N41">
-        <v>-1.556481418744</v>
+        <v>-0.5095172663927861</v>
       </c>
       <c r="O41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P41" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q41">
         <v>1879408</v>
@@ -3447,16 +3441,152 @@
         <v>5496982</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V41" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42">
+        <v>0.0122909161487</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>88.955</v>
+      </c>
+      <c r="K42">
+        <v>-1.46883378016086</v>
+      </c>
+      <c r="L42">
+        <v>-2.65890103360654</v>
+      </c>
+      <c r="M42">
+        <v>-0.459032255723727</v>
+      </c>
+      <c r="N42">
+        <v>-1.65120991530646</v>
+      </c>
+      <c r="O42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q42">
+        <v>1879408</v>
+      </c>
+      <c r="R42">
+        <v>5496982</v>
+      </c>
+      <c r="S42" t="s">
+        <v>53</v>
+      </c>
+      <c r="T42" t="s">
+        <v>54</v>
+      </c>
+      <c r="U42" t="s">
+        <v>55</v>
+      </c>
+      <c r="V42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43">
+        <v>0.077314875982908</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>3.9835</v>
+      </c>
+      <c r="K43">
+        <v>-0.0721927115503397</v>
+      </c>
+      <c r="L43">
+        <v>-0.126330623481906</v>
+      </c>
+      <c r="M43">
+        <v>0.0037459202357217</v>
+      </c>
+      <c r="N43">
+        <v>-1.8122934994437</v>
+      </c>
+      <c r="O43" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43">
+        <v>1879408</v>
+      </c>
+      <c r="R43">
+        <v>5496982</v>
+      </c>
+      <c r="S43" t="s">
+        <v>53</v>
+      </c>
+      <c r="T43" t="s">
+        <v>54</v>
+      </c>
+      <c r="U43" t="s">
+        <v>55</v>
+      </c>
+      <c r="V43" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
